--- a/data/trans_camb/P20B-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>5.339051377366716</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.967810201172782</v>
+        <v>2.967810201172785</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>7.402819599581431</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.15185805803451</v>
+        <v>-14.48974247672663</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.924941089514832</v>
+        <v>-10.50501674624634</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.42752768803107</v>
+        <v>-9.622929712752279</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.796601524034464</v>
+        <v>-1.956646332891485</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.993417126257484</v>
+        <v>-6.658117074324409</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-9.862111297025479</v>
+        <v>-9.750111109655746</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.939368096532452</v>
+        <v>-1.901654453663953</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.226888038074129</v>
+        <v>-2.380152100319683</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.979983140087479</v>
+        <v>-1.398028537147919</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.09193979037527</v>
+        <v>19.77736387570522</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>28.58594869550916</v>
+        <v>27.19518430225112</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29.44594202673445</v>
+        <v>28.88889831551329</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.58181675236261</v>
+        <v>17.91174993908252</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.36447632644412</v>
+        <v>15.91003573549727</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.12895898878798</v>
+        <v>15.5177154975122</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15.89897391820012</v>
+        <v>15.75525679051698</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>17.52913997231019</v>
+        <v>16.51241514505795</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>19.79990891747638</v>
+        <v>19.90985167734246</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.3590125589715071</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1995637538499006</v>
+        <v>0.1995637538499008</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.4341757202251685</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3997135228397383</v>
+        <v>-0.3986740386132204</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.307639225341979</v>
+        <v>-0.3014910305736955</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3034885548732689</v>
+        <v>-0.2836165973620569</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1889638347240682</v>
+        <v>-0.1095642539158046</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3077828003752644</v>
+        <v>-0.35419598545972</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4925863569279251</v>
+        <v>-0.5019913382441037</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09868652484388815</v>
+        <v>-0.08355666809707896</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1055112148638705</v>
+        <v>-0.112725112939217</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.07226833906186408</v>
+        <v>-0.0808790854233946</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.761044073442352</v>
+        <v>1.713576536248547</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.268388995078149</v>
+        <v>2.215286741324368</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.447906694092694</v>
+        <v>2.11467740545786</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.966094563541167</v>
+        <v>2.069336683020818</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.905918893286394</v>
+        <v>1.649967227564789</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.49191231475267</v>
+        <v>1.522072504066084</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.278711774226209</v>
+        <v>1.357179383121889</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.473010437803014</v>
+        <v>1.343458534116611</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.630667264640032</v>
+        <v>1.76594934416758</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-3.143495561684811</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-5.797134727590208</v>
+        <v>-5.797134727590198</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-5.278348740250133</v>
@@ -869,7 +869,7 @@
         <v>0.1818327595126401</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-4.466098390064807</v>
+        <v>-4.466098390064804</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-5.835578423576965</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-22.27259803269056</v>
+        <v>-24.62694368781734</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-25.34227268982916</v>
+        <v>-21.75340318244277</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-25.99048660708714</v>
+        <v>-24.42476502777845</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-20.34713380669949</v>
+        <v>-19.81399496939006</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-13.69031456090374</v>
+        <v>-16.90191086080411</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-17.6046542437057</v>
+        <v>-18.26132121147177</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-17.12792995013783</v>
+        <v>-16.42767511158986</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-13.92461439400386</v>
+        <v>-14.42820180615869</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-16.84129273489019</v>
+        <v>-15.66053795825394</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.71787489366586</v>
+        <v>18.18135685348929</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.02403833357086</v>
+        <v>16.69917432763653</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.54510293324675</v>
+        <v>13.09639770260576</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.848496837995766</v>
+        <v>8.546158542982543</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.51839118625076</v>
+        <v>13.9625978600096</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.0685850795502</v>
+        <v>8.533757843556945</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.063077309732667</v>
+        <v>6.773794255834022</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.43489983117692</v>
+        <v>10.37698078285344</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.29836445382468</v>
+        <v>6.560500397963014</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.08930223211099901</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.164688341644906</v>
+        <v>-0.1646883416449056</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1861286778385937</v>
@@ -974,7 +974,7 @@
         <v>0.006411908871755761</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1574865605413639</v>
+        <v>-0.1574865605413638</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1880520946871624</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5436992483676469</v>
+        <v>-0.5962729164923353</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5546182959870328</v>
+        <v>-0.4877984827506164</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5614211311775553</v>
+        <v>-0.5239278610977526</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5424198419923124</v>
+        <v>-0.5537162131255904</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.404604694492363</v>
+        <v>-0.4843992180703527</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4916440026107993</v>
+        <v>-0.4967771319397952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4693768637591368</v>
+        <v>-0.451359022182929</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3602350028223821</v>
+        <v>-0.3856022474763053</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4166543047872905</v>
+        <v>-0.4256650413873424</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8852868974656113</v>
+        <v>0.8154275687243755</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7525329099998741</v>
+        <v>0.6938452735927068</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5300311210453492</v>
+        <v>0.5532456528454989</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4616738307647989</v>
+        <v>0.447032473908456</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8036513331936119</v>
+        <v>0.6457537505741966</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5242702811659967</v>
+        <v>0.4445344579769636</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2431399857294835</v>
+        <v>0.2801937742203664</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4719840491694401</v>
+        <v>0.4380348670135761</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2672424726195494</v>
+        <v>0.284140305276354</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>19.43854011235178</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.285516913513248</v>
+        <v>4.285516913513243</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>13.23137482689298</v>
@@ -1083,7 +1083,7 @@
         <v>2.864661237281127</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>5.200238428469273</v>
+        <v>5.200238428469267</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>10.51796413873712</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-14.97495443274461</v>
+        <v>-15.60651267884345</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.612376445471173</v>
+        <v>-2.62684711312472</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.95017242842679</v>
+        <v>-13.75196113133601</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.655945748079923</v>
+        <v>-2.988386554708654</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-11.90242654934544</v>
+        <v>-10.00461340816944</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.300267401888753</v>
+        <v>-9.111732478118203</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.829353739948427</v>
+        <v>-0.7886310219993038</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.717728782652212</v>
+        <v>-1.836753546307164</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-5.009771856167262</v>
+        <v>-5.341303330804987</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>25.62379621708545</v>
+        <v>25.76207077248148</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>41.09686415842415</v>
+        <v>40.53419141069694</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22.82135925706667</v>
+        <v>23.4008765551125</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28.34901125706601</v>
+        <v>28.54134859523679</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>17.22210710344093</v>
+        <v>18.12753011450263</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>19.02728287419913</v>
+        <v>17.36639805657846</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>23.29422601455679</v>
+        <v>23.51927774455113</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>22.03990008073963</v>
+        <v>22.95894759882025</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.49034258428262</v>
+        <v>16.88486128542934</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.7207970765898486</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1589104966259207</v>
+        <v>0.1589104966259205</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.6623949298715431</v>
@@ -1188,7 +1188,7 @@
         <v>0.1434119359628287</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2603366327541398</v>
+        <v>0.2603366327541395</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.4711761732168312</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4110422139766233</v>
+        <v>-0.4404340628261996</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.06488909576417912</v>
+        <v>-0.09606032086989413</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4124223907941194</v>
+        <v>-0.3691304947122586</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1518130360190391</v>
+        <v>-0.1194680334531099</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.462819329944633</v>
+        <v>-0.4267756544748231</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3205753656568894</v>
+        <v>-0.3453560152035772</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.07576993820995685</v>
+        <v>-0.03094499280664512</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.07541565306417379</v>
+        <v>-0.07541393432491789</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1908465951005711</v>
+        <v>-0.2004810894970728</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.404592330103234</v>
+        <v>1.491225648863389</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.418572162177878</v>
+        <v>2.414166267897241</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.416724385652303</v>
+        <v>1.419503966204333</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.049857295504178</v>
+        <v>2.113903058961347</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.116465961990231</v>
+        <v>1.402420815591881</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.497840139623535</v>
+        <v>1.351897456893251</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.311664814245023</v>
+        <v>1.390518292544797</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.329522595583458</v>
+        <v>1.416708085792712</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.034138255587277</v>
+        <v>0.9771871413170036</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-3.6621810131754</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18.46051577182811</v>
+        <v>18.46051577182813</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>9.107630817368333</v>
@@ -1297,7 +1297,7 @@
         <v>17.06635678741352</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>11.55583638175769</v>
+        <v>11.5558363817577</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>11.6429411674243</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-9.368305065960671</v>
+        <v>-6.632243641962216</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-24.0161792820894</v>
+        <v>-25.61560394516419</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.528539871713752</v>
+        <v>-1.954396618353256</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-15.25202454099137</v>
+        <v>-12.16013866174542</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.519400588582578</v>
+        <v>-5.114638588093136</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-9.941717672685161</v>
+        <v>-12.45924971581654</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.470116043517153</v>
+        <v>-4.498267348500551</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.516657338431017</v>
+        <v>-7.93054748604056</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.594881743649563</v>
+        <v>-0.6411862551970884</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>37.68787046254158</v>
+        <v>37.20645742533907</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.87119291212004</v>
+        <v>18.8425350218645</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>37.55275545087034</v>
+        <v>37.21881080707823</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26.94538985189182</v>
+        <v>29.01298710651314</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>40.60059187380749</v>
+        <v>42.23704520983267</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>27.97384742024727</v>
+        <v>28.07219243523486</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>26.62290397868553</v>
+        <v>25.90576913204373</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>26.06823629936179</v>
+        <v>25.73614050104272</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>28.94156170900069</v>
+        <v>28.4163990621731</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>1.150215247661983</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7788246414482225</v>
+        <v>0.7788246414482233</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.7176803037481234</v>
@@ -1411,7 +1411,7 @@
         <v>0.5151781427935226</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.8952302910048504</v>
+        <v>0.8952302910048507</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,29 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3364206645679484</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>-0.8595623557710604</v>
-      </c>
+        <v>-0.3094916423029754</v>
+      </c>
+      <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>-0.2398557411908252</v>
+        <v>-0.1537041758917944</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5660359935016563</v>
+        <v>-0.4737181047643961</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4482096645750561</v>
+        <v>-0.3456187737923083</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4079962764334939</v>
+        <v>-0.4744916147564865</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2116685183824553</v>
+        <v>-0.2275808794529614</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3451439150375606</v>
+        <v>-0.3966040988542784</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1109735731998591</v>
+        <v>-0.08878016559601898</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1455,29 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7.46575974578405</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>4.399416394620063</v>
-      </c>
+        <v>7.845707010201166</v>
+      </c>
+      <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>6.797393857333303</v>
+        <v>6.795708065915536</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5.425134428921584</v>
+        <v>8.287049839214236</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8.328362336937834</v>
+        <v>11.76056570750574</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5.653472214556471</v>
+        <v>7.865103100949565</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.308365131751137</v>
+        <v>3.248315524036716</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3.849171452483231</v>
+        <v>3.103969941738604</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3.658974632646472</v>
+        <v>3.448843744050257</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1498,7 @@
         <v>6.810612201753696</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5.668058172350604</v>
+        <v>5.668058172350598</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.709733726342141</v>
@@ -1511,7 +1507,7 @@
         <v>4.571868542025573</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.726321226011803</v>
+        <v>3.7263212260118</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.21298869037389</v>
@@ -1520,7 +1516,7 @@
         <v>5.56052306202873</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>5.370175780016359</v>
+        <v>5.370175780016353</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1527,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.823815167885472</v>
+        <v>-8.4654470886301</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.078297952640392</v>
+        <v>-3.989384486529381</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.72683029448914</v>
+        <v>-4.960543705212337</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.383973030192338</v>
+        <v>-2.719986465157415</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.594160947749923</v>
+        <v>-3.175471339146723</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.439677391707742</v>
+        <v>-2.597478582136502</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.800619681891302</v>
+        <v>-1.638777038079633</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.2007145092078748</v>
+        <v>-0.6358432283517119</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.2629658160789911</v>
+        <v>-0.2949215498720444</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1562,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.40748669211502</v>
+        <v>12.03910536418172</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>17.23947315992469</v>
+        <v>18.55739290057998</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15.1111062563991</v>
+        <v>15.68279629530875</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.36797212945811</v>
+        <v>11.36483350658601</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.37113973283339</v>
+        <v>12.00928192383295</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.74031700115809</v>
+        <v>10.85911648785461</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.675549057522467</v>
+        <v>9.766323437989438</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>11.29971972708442</v>
+        <v>11.58813618835132</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>11.33831434853401</v>
+        <v>10.73418382879821</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1603,7 @@
         <v>0.2530763037450771</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2106200102394913</v>
+        <v>0.2106200102394911</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2369010333063005</v>
@@ -1616,7 +1612,7 @@
         <v>0.2299663727672376</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1874350866028699</v>
+        <v>0.1874350866028698</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1885533427464128</v>
@@ -1625,7 +1621,7 @@
         <v>0.2488625742479715</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.2403435349284186</v>
+        <v>0.2403435349284184</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1632,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2206891408590519</v>
+        <v>-0.2598488807865793</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1255070099060132</v>
+        <v>-0.143862204028418</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1430890004274559</v>
+        <v>-0.1645407623160302</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.09969480253435074</v>
+        <v>-0.1364445336645965</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1138797178007048</v>
+        <v>-0.1426125716430792</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1494521798913913</v>
+        <v>-0.122477342990924</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.07256234565909303</v>
+        <v>-0.06469505825345434</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.01135643456450233</v>
+        <v>-0.03355597942921522</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.01802301022739553</v>
+        <v>-0.0147686073824283</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1667,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5868279754656867</v>
+        <v>0.5658341953790693</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8457467771897434</v>
+        <v>0.8751114008667029</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7121565208808258</v>
+        <v>0.7435948683599074</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6945220663780439</v>
+        <v>0.6927097795964814</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7641014053370411</v>
+        <v>0.7224621766308581</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6611077746446566</v>
+        <v>0.6797582296125357</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5016744477668351</v>
+        <v>0.514888565086458</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5689584525354296</v>
+        <v>0.5965957295821566</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5882815354728956</v>
+        <v>0.5504894243139044</v>
       </c>
     </row>
     <row r="34">
